--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/registerLogin/Login.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/registerLogin/Login.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/app_nonobank_ui_testing/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/registerLogin/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="25600" windowHeight="14120"/>
   </bookViews>
   <sheets>
-    <sheet name="biz_login" sheetId="1" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIT环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mobile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +75,24 @@
   </si>
   <si>
     <t>${UserInfoUtils.getUnregisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pictureVerification</t>
+  </si>
+  <si>
+    <t>smsCode</t>
+  </si>
+  <si>
+    <t>8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>888888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,20 +443,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,32 +466,44 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/registerLogin/Login.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/registerLogin/Login.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,19 @@
   </si>
   <si>
     <t>888888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+  </si>
+  <si>
+    <t>登录</t>
+    <rPh sb="0" eb="1">
+      <t>deng'l</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,67 +456,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="31.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/registerLogin/Login.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/registerLogin/Login.xlsx
@@ -74,14 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pictureVerification</t>
   </si>
   <si>
@@ -106,6 +98,14 @@
     <rPh sb="0" eb="1">
       <t>deng'l</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -478,10 +478,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -490,10 +490,10 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -510,22 +510,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
